--- a/team_specific_matrix/Southern U._B.xlsx
+++ b/team_specific_matrix/Southern U._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.203781512605042</v>
+        <v>0.2016260162601626</v>
       </c>
       <c r="C2">
-        <v>0.5441176470588235</v>
+        <v>0.5398373983739837</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01260504201680672</v>
+        <v>0.01300813008130081</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1407563025210084</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09873949579831932</v>
+        <v>0.1040650406504065</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01107011070110701</v>
+        <v>0.01146131805157593</v>
       </c>
       <c r="C3">
-        <v>0.03690036900369004</v>
+        <v>0.02865329512893983</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03321033210332103</v>
+        <v>0.03724928366762178</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6900369003690037</v>
+        <v>0.7048710601719198</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2287822878228782</v>
+        <v>0.2177650429799427</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7575757575757576</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1515151515151515</v>
+        <v>0.1279069767441861</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07692307692307693</v>
+        <v>0.07399577167019028</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01373626373626374</v>
+        <v>0.0105708245243129</v>
       </c>
       <c r="E6">
-        <v>0.002747252747252747</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="F6">
-        <v>0.0576923076923077</v>
+        <v>0.05285412262156448</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2692307692307692</v>
+        <v>0.2832980972515856</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03846153846153846</v>
+        <v>0.03382663847780127</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1565934065934066</v>
+        <v>0.1585623678646934</v>
       </c>
       <c r="R6">
-        <v>0.04395604395604396</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="S6">
-        <v>0.3406593406593407</v>
+        <v>0.3361522198731501</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1138211382113821</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01355013550135501</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05149051490514905</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1761517615176152</v>
+        <v>0.1797235023041475</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02168021680216802</v>
+        <v>0.02073732718894009</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1680216802168022</v>
+        <v>0.1728110599078341</v>
       </c>
       <c r="R7">
-        <v>0.04336043360433604</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="S7">
-        <v>0.4119241192411924</v>
+        <v>0.4009216589861751</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09615384615384616</v>
+        <v>0.09751243781094528</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01538461538461539</v>
+        <v>0.01691542288557214</v>
       </c>
       <c r="E8">
-        <v>0.001282051282051282</v>
+        <v>0.0009950248756218905</v>
       </c>
       <c r="F8">
-        <v>0.05897435897435897</v>
+        <v>0.06368159203980099</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1205128205128205</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02307692307692308</v>
+        <v>0.02288557213930348</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1782051282051282</v>
+        <v>0.1781094527363184</v>
       </c>
       <c r="R8">
-        <v>0.06153846153846154</v>
+        <v>0.06766169154228856</v>
       </c>
       <c r="S8">
-        <v>0.4448717948717948</v>
+        <v>0.4328358208955224</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09842519685039371</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007874015748031496</v>
+        <v>0.0060790273556231</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.00303951367781155</v>
       </c>
       <c r="F9">
-        <v>0.09448818897637795</v>
+        <v>0.0911854103343465</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1141732283464567</v>
+        <v>0.121580547112462</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01968503937007874</v>
+        <v>0.0182370820668693</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1456692913385827</v>
+        <v>0.1458966565349544</v>
       </c>
       <c r="R9">
-        <v>0.07874015748031496</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S9">
-        <v>0.4409448818897638</v>
+        <v>0.4224924012158054</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1205211726384365</v>
+        <v>0.1197806832560101</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02280130293159609</v>
+        <v>0.02446225221425559</v>
       </c>
       <c r="E10">
-        <v>0.001085776330076004</v>
+        <v>0.0008435259384226065</v>
       </c>
       <c r="F10">
-        <v>0.07003257328990228</v>
+        <v>0.07043441585828764</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1064060803474484</v>
+        <v>0.1037536904259806</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02823018458197611</v>
+        <v>0.02446225221425559</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2019543973941368</v>
+        <v>0.2113032475748629</v>
       </c>
       <c r="R10">
-        <v>0.06623235613463627</v>
+        <v>0.06832560101223113</v>
       </c>
       <c r="S10">
-        <v>0.3827361563517915</v>
+        <v>0.3766343315056938</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.001915708812260536</v>
+        <v>0.001545595054095827</v>
       </c>
       <c r="G11">
-        <v>0.1590038314176245</v>
+        <v>0.160741885625966</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08237547892720307</v>
+        <v>0.09428129829984544</v>
       </c>
       <c r="K11">
-        <v>0.1973180076628352</v>
+        <v>0.1993817619783617</v>
       </c>
       <c r="L11">
-        <v>0.5344827586206896</v>
+        <v>0.5239567233384853</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02490421455938697</v>
+        <v>0.02009273570324575</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7575757575757576</v>
+        <v>0.7442455242966752</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1484848484848485</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="K12">
-        <v>0.01212121212121212</v>
+        <v>0.01534526854219949</v>
       </c>
       <c r="L12">
-        <v>0.03333333333333333</v>
+        <v>0.02813299232736573</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04848484848484848</v>
+        <v>0.04603580562659847</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.594059405940594</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2705882352941176</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1294117647058824</v>
+        <v>0.1089108910891089</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01626016260162602</v>
+        <v>0.02428256070640177</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1924119241192412</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="I15">
-        <v>0.04065040650406504</v>
+        <v>0.04194260485651214</v>
       </c>
       <c r="J15">
-        <v>0.3197831978319783</v>
+        <v>0.3134657836644592</v>
       </c>
       <c r="K15">
-        <v>0.07859078590785908</v>
+        <v>0.0772626931567329</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01355013550135501</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="N15">
-        <v>0.002710027100271003</v>
+        <v>0.002207505518763797</v>
       </c>
       <c r="O15">
-        <v>0.05691056910569105</v>
+        <v>0.05960264900662252</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2791327913279133</v>
+        <v>0.2759381898454746</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02675585284280936</v>
+        <v>0.02813299232736573</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1337792642140468</v>
+        <v>0.1457800511508952</v>
       </c>
       <c r="I16">
-        <v>0.07023411371237458</v>
+        <v>0.07928388746803069</v>
       </c>
       <c r="J16">
-        <v>0.4381270903010033</v>
+        <v>0.4092071611253197</v>
       </c>
       <c r="K16">
-        <v>0.1404682274247492</v>
+        <v>0.1355498721227621</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006688963210702341</v>
+        <v>0.007672634271099744</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05016722408026756</v>
+        <v>0.06393861892583121</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1337792642140468</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02427921092564492</v>
+        <v>0.02655889145496536</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1972685887708649</v>
+        <v>0.2032332563510393</v>
       </c>
       <c r="I17">
-        <v>0.07587253414264036</v>
+        <v>0.07159353348729793</v>
       </c>
       <c r="J17">
-        <v>0.3975720789074355</v>
+        <v>0.3937644341801386</v>
       </c>
       <c r="K17">
-        <v>0.1001517450682853</v>
+        <v>0.1039260969976905</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02427921092564492</v>
+        <v>0.02309468822170901</v>
       </c>
       <c r="N17">
-        <v>0.001517450682852807</v>
+        <v>0.00115473441108545</v>
       </c>
       <c r="O17">
-        <v>0.0637329286798179</v>
+        <v>0.06351039260969978</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1153262518968134</v>
+        <v>0.1131639722863741</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04504504504504504</v>
+        <v>0.03642384105960265</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1801801801801802</v>
+        <v>0.1754966887417219</v>
       </c>
       <c r="I18">
-        <v>0.08558558558558559</v>
+        <v>0.08940397350993377</v>
       </c>
       <c r="J18">
-        <v>0.4099099099099099</v>
+        <v>0.4105960264900662</v>
       </c>
       <c r="K18">
-        <v>0.1036036036036036</v>
+        <v>0.08278145695364239</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.004504504504504504</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05405405405405406</v>
+        <v>0.05629139072847682</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1171171171171171</v>
+        <v>0.1291390728476821</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02935514918190568</v>
+        <v>0.02821801314263626</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2305101058710298</v>
+        <v>0.2365674526478547</v>
       </c>
       <c r="I19">
-        <v>0.06737247353224254</v>
+        <v>0.06957866254348666</v>
       </c>
       <c r="J19">
-        <v>0.3224254090471607</v>
+        <v>0.332044839582528</v>
       </c>
       <c r="K19">
-        <v>0.1135707410972089</v>
+        <v>0.1113258600695787</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02791145332050048</v>
+        <v>0.02435253189022033</v>
       </c>
       <c r="N19">
-        <v>0.002406159769008662</v>
+        <v>0.001932740626207963</v>
       </c>
       <c r="O19">
-        <v>0.06689124157844081</v>
+        <v>0.06494008504058756</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1395572666025024</v>
+        <v>0.1310398144568999</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern U._B.xlsx
+++ b/team_specific_matrix/Southern U._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2016260162601626</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.5398373983739837</v>
+        <v>0.546875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01300813008130081</v>
+        <v>0.0125</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1414634146341463</v>
+        <v>0.1390625</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1040650406504065</v>
+        <v>0.1015625</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01146131805157593</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C3">
-        <v>0.02865329512893983</v>
+        <v>0.02989130434782609</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03724928366762178</v>
+        <v>0.03532608695652174</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7048710601719198</v>
+        <v>0.7092391304347826</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2177650429799427</v>
+        <v>0.2146739130434783</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1046511627906977</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7674418604651163</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1279069767441861</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07399577167019028</v>
+        <v>0.07554671968190854</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0105708245243129</v>
+        <v>0.009940357852882704</v>
       </c>
       <c r="E6">
-        <v>0.004228329809725159</v>
+        <v>0.003976143141153081</v>
       </c>
       <c r="F6">
-        <v>0.05285412262156448</v>
+        <v>0.05168986083499006</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2832980972515856</v>
+        <v>0.2783300198807157</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03382663847780127</v>
+        <v>0.03379721669980119</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1585623678646934</v>
+        <v>0.1590457256461233</v>
       </c>
       <c r="R6">
-        <v>0.04651162790697674</v>
+        <v>0.04572564612326044</v>
       </c>
       <c r="S6">
-        <v>0.3361522198731501</v>
+        <v>0.341948310139165</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1129032258064516</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01382488479262673</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04838709677419355</v>
+        <v>0.05077262693156733</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1797235023041475</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02073732718894009</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1728110599078341</v>
+        <v>0.1721854304635762</v>
       </c>
       <c r="R7">
-        <v>0.05069124423963134</v>
+        <v>0.04856512141280353</v>
       </c>
       <c r="S7">
-        <v>0.4009216589861751</v>
+        <v>0.3973509933774834</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09751243781094528</v>
+        <v>0.09811320754716982</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01691542288557214</v>
+        <v>0.0169811320754717</v>
       </c>
       <c r="E8">
-        <v>0.0009950248756218905</v>
+        <v>0.0009433962264150943</v>
       </c>
       <c r="F8">
-        <v>0.06368159203980099</v>
+        <v>0.06509433962264151</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1194029850746269</v>
+        <v>0.119811320754717</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02288557213930348</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1781094527363184</v>
+        <v>0.1792452830188679</v>
       </c>
       <c r="R8">
-        <v>0.06766169154228856</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="S8">
-        <v>0.4328358208955224</v>
+        <v>0.430188679245283</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1063829787234043</v>
+        <v>0.1005747126436782</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0060790273556231</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="E9">
-        <v>0.00303951367781155</v>
+        <v>0.002873563218390805</v>
       </c>
       <c r="F9">
-        <v>0.0911854103343465</v>
+        <v>0.08908045977011494</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.121580547112462</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0182370820668693</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1458966565349544</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="R9">
-        <v>0.0851063829787234</v>
+        <v>0.08908045977011494</v>
       </c>
       <c r="S9">
-        <v>0.4224924012158054</v>
+        <v>0.4310344827586207</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1197806832560101</v>
+        <v>0.1215670436187399</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02446225221425559</v>
+        <v>0.02382875605815832</v>
       </c>
       <c r="E10">
-        <v>0.0008435259384226065</v>
+        <v>0.0008077544426494346</v>
       </c>
       <c r="F10">
-        <v>0.07043441585828764</v>
+        <v>0.07269789983844911</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1037536904259806</v>
+        <v>0.1050080775444265</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02446225221425559</v>
+        <v>0.02463651050080775</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2113032475748629</v>
+        <v>0.2079967689822294</v>
       </c>
       <c r="R10">
-        <v>0.06832560101223113</v>
+        <v>0.06744749596122779</v>
       </c>
       <c r="S10">
-        <v>0.3766343315056938</v>
+        <v>0.3760096930533118</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.001545595054095827</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="G11">
-        <v>0.160741885625966</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09428129829984544</v>
+        <v>0.09292035398230089</v>
       </c>
       <c r="K11">
-        <v>0.1993817619783617</v>
+        <v>0.2005899705014749</v>
       </c>
       <c r="L11">
-        <v>0.5239567233384853</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02009273570324575</v>
+        <v>0.02359882005899705</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7442455242966752</v>
+        <v>0.7408312958435208</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1662404092071611</v>
+        <v>0.1662591687041565</v>
       </c>
       <c r="K12">
-        <v>0.01534526854219949</v>
+        <v>0.01466992665036675</v>
       </c>
       <c r="L12">
-        <v>0.02813299232736573</v>
+        <v>0.02689486552567237</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04603580562659847</v>
+        <v>0.05134474327628362</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.594059405940594</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.297029702970297</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1089108910891089</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02428256070640177</v>
+        <v>0.02494802494802495</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1920529801324503</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I15">
-        <v>0.04194260485651214</v>
+        <v>0.04365904365904366</v>
       </c>
       <c r="J15">
-        <v>0.3134657836644592</v>
+        <v>0.3180873180873181</v>
       </c>
       <c r="K15">
-        <v>0.0772626931567329</v>
+        <v>0.07276507276507277</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01324503311258278</v>
+        <v>0.01247401247401247</v>
       </c>
       <c r="N15">
-        <v>0.002207505518763797</v>
+        <v>0.002079002079002079</v>
       </c>
       <c r="O15">
-        <v>0.05960264900662252</v>
+        <v>0.06029106029106029</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2759381898454746</v>
+        <v>0.2765072765072765</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02813299232736573</v>
+        <v>0.02682926829268293</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1457800511508952</v>
+        <v>0.148780487804878</v>
       </c>
       <c r="I16">
-        <v>0.07928388746803069</v>
+        <v>0.08048780487804878</v>
       </c>
       <c r="J16">
-        <v>0.4092071611253197</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="K16">
-        <v>0.1355498721227621</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007672634271099744</v>
+        <v>0.007317073170731708</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06393861892583121</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1304347826086956</v>
+        <v>0.1317073170731707</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02655889145496536</v>
+        <v>0.02558398220244716</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2032332563510393</v>
+        <v>0.203559510567297</v>
       </c>
       <c r="I17">
-        <v>0.07159353348729793</v>
+        <v>0.07341490545050056</v>
       </c>
       <c r="J17">
-        <v>0.3937644341801386</v>
+        <v>0.3948832035595106</v>
       </c>
       <c r="K17">
-        <v>0.1039260969976905</v>
+        <v>0.1023359288097887</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02309468822170901</v>
+        <v>0.02335928809788654</v>
       </c>
       <c r="N17">
-        <v>0.00115473441108545</v>
+        <v>0.001112347052280311</v>
       </c>
       <c r="O17">
-        <v>0.06351039260969978</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1131639722863741</v>
+        <v>0.1112347052280311</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03642384105960265</v>
+        <v>0.03833865814696485</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1754966887417219</v>
+        <v>0.1789137380191693</v>
       </c>
       <c r="I18">
-        <v>0.08940397350993377</v>
+        <v>0.08626198083067092</v>
       </c>
       <c r="J18">
-        <v>0.4105960264900662</v>
+        <v>0.4057507987220447</v>
       </c>
       <c r="K18">
-        <v>0.08278145695364239</v>
+        <v>0.08306709265175719</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01986754966887417</v>
+        <v>0.02236421725239617</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05629139072847682</v>
+        <v>0.06070287539936102</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1291390728476821</v>
+        <v>0.1246006389776358</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02821801314263626</v>
+        <v>0.02949852507374631</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2365674526478547</v>
+        <v>0.2367256637168142</v>
       </c>
       <c r="I19">
-        <v>0.06957866254348666</v>
+        <v>0.06895280235988201</v>
       </c>
       <c r="J19">
-        <v>0.332044839582528</v>
+        <v>0.3307522123893805</v>
       </c>
       <c r="K19">
-        <v>0.1113258600695787</v>
+        <v>0.1102507374631268</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02435253189022033</v>
+        <v>0.02359882005899705</v>
       </c>
       <c r="N19">
-        <v>0.001932740626207963</v>
+        <v>0.001843657817109145</v>
       </c>
       <c r="O19">
-        <v>0.06494008504058756</v>
+        <v>0.06452802359882005</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1310398144568999</v>
+        <v>0.1338495575221239</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern U._B.xlsx
+++ b/team_specific_matrix/Southern U._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1976573938506589</v>
       </c>
       <c r="C2">
-        <v>0.546875</v>
+        <v>0.5490483162518301</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0125</v>
+        <v>0.01317715959004392</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1390625</v>
+        <v>0.1376281112737921</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1015625</v>
+        <v>0.102489019033675</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0108695652173913</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="C3">
-        <v>0.02989130434782609</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03532608695652174</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7092391304347826</v>
+        <v>0.7131979695431472</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2146739130434783</v>
+        <v>0.2106598984771574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1022727272727273</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7727272727272727</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.125</v>
+        <v>0.1397849462365591</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07554671968190854</v>
+        <v>0.07522935779816514</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009940357852882704</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E6">
-        <v>0.003976143141153081</v>
+        <v>0.003669724770642202</v>
       </c>
       <c r="F6">
-        <v>0.05168986083499006</v>
+        <v>0.04954128440366973</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2783300198807157</v>
+        <v>0.2862385321100918</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03379721669980119</v>
+        <v>0.03119266055045872</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1590457256461233</v>
+        <v>0.1541284403669725</v>
       </c>
       <c r="R6">
-        <v>0.04572564612326044</v>
+        <v>0.04220183486238532</v>
       </c>
       <c r="S6">
-        <v>0.341948310139165</v>
+        <v>0.3486238532110092</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1125827814569536</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01324503311258278</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05077262693156733</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1854304635761589</v>
+        <v>0.1890756302521008</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01986754966887417</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1721854304635762</v>
+        <v>0.1680672268907563</v>
       </c>
       <c r="R7">
-        <v>0.04856512141280353</v>
+        <v>0.04831932773109244</v>
       </c>
       <c r="S7">
-        <v>0.3973509933774834</v>
+        <v>0.3970588235294117</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09811320754716982</v>
+        <v>0.09982174688057041</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0169811320754717</v>
+        <v>0.01693404634581105</v>
       </c>
       <c r="E8">
-        <v>0.0009433962264150943</v>
+        <v>0.00089126559714795</v>
       </c>
       <c r="F8">
-        <v>0.06509433962264151</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.119811320754717</v>
+        <v>0.1167557932263815</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02358490566037736</v>
+        <v>0.02228163992869875</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1792452830188679</v>
+        <v>0.1809269162210339</v>
       </c>
       <c r="R8">
-        <v>0.0660377358490566</v>
+        <v>0.0659536541889483</v>
       </c>
       <c r="S8">
-        <v>0.430188679245283</v>
+        <v>0.4322638146167558</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1005747126436782</v>
+        <v>0.0968586387434555</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005747126436781609</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="E9">
-        <v>0.002873563218390805</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="F9">
-        <v>0.08908045977011494</v>
+        <v>0.08638743455497382</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1264367816091954</v>
+        <v>0.1230366492146597</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01724137931034483</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1379310344827586</v>
+        <v>0.143979057591623</v>
       </c>
       <c r="R9">
-        <v>0.08908045977011494</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="S9">
-        <v>0.4310344827586207</v>
+        <v>0.4371727748691099</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1215670436187399</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02382875605815832</v>
+        <v>0.02371987951807229</v>
       </c>
       <c r="E10">
-        <v>0.0008077544426494346</v>
+        <v>0.0007530120481927711</v>
       </c>
       <c r="F10">
-        <v>0.07269789983844911</v>
+        <v>0.07341867469879518</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1050080775444265</v>
+        <v>0.1065512048192771</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02463651050080775</v>
+        <v>0.0233433734939759</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2079967689822294</v>
+        <v>0.2085843373493976</v>
       </c>
       <c r="R10">
-        <v>0.06744749596122779</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="S10">
-        <v>0.3760096930533118</v>
+        <v>0.376882530120482</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.001474926253687316</v>
+        <v>0.001400560224089636</v>
       </c>
       <c r="G11">
-        <v>0.168141592920354</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09292035398230089</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="K11">
-        <v>0.2005899705014749</v>
+        <v>0.2030812324929972</v>
       </c>
       <c r="L11">
-        <v>0.5132743362831859</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02359882005899705</v>
+        <v>0.02240896358543417</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7408312958435208</v>
+        <v>0.7336448598130841</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1662591687041565</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="K12">
-        <v>0.01466992665036675</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="L12">
-        <v>0.02689486552567237</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05134474327628362</v>
+        <v>0.0514018691588785</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="G13">
-        <v>0.580952380952381</v>
+        <v>0.5982142857142857</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3047619047619048</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1142857142857143</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02494802494802495</v>
+        <v>0.025390625</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1891891891891892</v>
+        <v>0.185546875</v>
       </c>
       <c r="I15">
-        <v>0.04365904365904366</v>
+        <v>0.044921875</v>
       </c>
       <c r="J15">
-        <v>0.3180873180873181</v>
+        <v>0.328125</v>
       </c>
       <c r="K15">
-        <v>0.07276507276507277</v>
+        <v>0.072265625</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01247401247401247</v>
+        <v>0.01171875</v>
       </c>
       <c r="N15">
-        <v>0.002079002079002079</v>
+        <v>0.00390625</v>
       </c>
       <c r="O15">
-        <v>0.06029106029106029</v>
+        <v>0.060546875</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2765072765072765</v>
+        <v>0.267578125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02682926829268293</v>
+        <v>0.02745995423340961</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.148780487804878</v>
+        <v>0.1624713958810069</v>
       </c>
       <c r="I16">
-        <v>0.08048780487804878</v>
+        <v>0.07780320366132723</v>
       </c>
       <c r="J16">
-        <v>0.4024390243902439</v>
+        <v>0.3821510297482837</v>
       </c>
       <c r="K16">
-        <v>0.1341463414634146</v>
+        <v>0.1350114416475973</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007317073170731708</v>
+        <v>0.009153318077803204</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06829268292682927</v>
+        <v>0.07322654462242563</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1317073170731707</v>
+        <v>0.1327231121281464</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02558398220244716</v>
+        <v>0.02596053997923157</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.203559510567297</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="I17">
-        <v>0.07341490545050056</v>
+        <v>0.0778816199376947</v>
       </c>
       <c r="J17">
-        <v>0.3948832035595106</v>
+        <v>0.3935617860851506</v>
       </c>
       <c r="K17">
-        <v>0.1023359288097887</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02335928809788654</v>
+        <v>0.02388369678089304</v>
       </c>
       <c r="N17">
-        <v>0.001112347052280311</v>
+        <v>0.002076843198338525</v>
       </c>
       <c r="O17">
-        <v>0.06451612903225806</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1112347052280311</v>
+        <v>0.1121495327102804</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03833865814696485</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1789137380191693</v>
+        <v>0.1757575757575758</v>
       </c>
       <c r="I18">
-        <v>0.08626198083067092</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J18">
-        <v>0.4057507987220447</v>
+        <v>0.403030303030303</v>
       </c>
       <c r="K18">
-        <v>0.08306709265175719</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02236421725239617</v>
+        <v>0.02121212121212121</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06070287539936102</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1246006389776358</v>
+        <v>0.1272727272727273</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02949852507374631</v>
+        <v>0.03132530120481928</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2367256637168142</v>
+        <v>0.2351118760757315</v>
       </c>
       <c r="I19">
-        <v>0.06895280235988201</v>
+        <v>0.07091222030981068</v>
       </c>
       <c r="J19">
-        <v>0.3307522123893805</v>
+        <v>0.3335628227194492</v>
       </c>
       <c r="K19">
-        <v>0.1102507374631268</v>
+        <v>0.1070567986230637</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02359882005899705</v>
+        <v>0.023407917383821</v>
       </c>
       <c r="N19">
-        <v>0.001843657817109145</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="O19">
-        <v>0.06452802359882005</v>
+        <v>0.06506024096385542</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1338495575221239</v>
+        <v>0.13184165232358</v>
       </c>
     </row>
   </sheetData>
